--- a/data/case1/5/Q1_14.xlsx
+++ b/data/case1/5/Q1_14.xlsx
@@ -56,172 +56,172 @@
   <dimension ref="A1:A33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.207495476648063</v>
+        <v>0.31112539381262394</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999641888735</v>
+        <v>-0.057944486788748861</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999674069642</v>
+        <v>-0.017464490136667621</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999399831268</v>
+        <v>-0.0079999998824966667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.039322520512941495</v>
+        <v>-0.0029999999249126219</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.001999999962880139</v>
+        <v>-0.0019999999078148534</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999173294718</v>
+        <v>-0.0099999998234485687</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.009999999919998892</v>
+        <v>-0.0099999998206476981</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.068322757375755216</v>
+        <v>-0.0019999999012494385</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999695947679</v>
+        <v>-0.0019999998994020274</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999637739805</v>
+        <v>-0.0029999998888339263</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999606064591</v>
+        <v>-0.0034999998835245627</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999597369325</v>
+        <v>-0.0034999998835134605</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999336965999</v>
+        <v>-0.0079999998371445002</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.013649468827350297</v>
+        <v>-0.00099999991076327177</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999679480851</v>
+        <v>0.018799110184872347</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999671727053</v>
+        <v>-0.0019999999002626723</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999554254373</v>
+        <v>-0.0039999998790722913</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999755626625</v>
+        <v>-0.032503384232763999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999738657976</v>
+        <v>-0.0039999999499702454</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999735984559</v>
+        <v>-0.0039999999494870764</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.003999999973374635</v>
+        <v>-0.0039999999490554217</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999598382416</v>
+        <v>-0.0049999999196401745</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.01999999987019585</v>
+        <v>-0.019999999756725728</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999868566043</v>
+        <v>-0.019999999753369302</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.002499999957837673</v>
+        <v>-0.0024999999002321971</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999551189589</v>
+        <v>-0.002499999895203775</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.021342793818762473</v>
+        <v>-0.001999999875729408</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999088690146</v>
+        <v>-0.0069999998075145342</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999599706477</v>
+        <v>-0.059999999249589653</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999024386028</v>
+        <v>-0.0069999997937468805</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999998847284388</v>
+        <v>-0.0099999997619111269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999191326907</v>
+        <v>-0.003999999823859568</v>
       </c>
     </row>
   </sheetData>
